--- a/data/feedback-benchmark/model_analysis/gpt-4o-2024-08-06/overall_score.xlsx
+++ b/data/feedback-benchmark/model_analysis/gpt-4o-2024-08-06/overall_score.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,503 +436,541 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Model_name</t>
+          <t>Model</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Error_correct</t>
+          <t>Error Correction</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Response_maintenance</t>
+          <t>Response Maintenance</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Overall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>EC-RM</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>qwen-max-0919</t>
+          <t>DeepSeek-V3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71.52</v>
+        <v>74.23999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>62.57</v>
+        <v>75.48</v>
       </c>
       <c r="D2" t="n">
-        <v>67.04000000000001</v>
+        <v>74.86</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-1.240000000000009</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Qwen2.5-72B-Instruct</t>
+          <t>qwen-max-0919</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66.51000000000001</v>
+        <v>72.03</v>
       </c>
       <c r="C3" t="n">
-        <v>63.22</v>
+        <v>74.42</v>
       </c>
       <c r="D3" t="n">
-        <v>64.87</v>
+        <v>73.22</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-2.390000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ERNIE-4.0-8K-0329</t>
+          <t>gpt-4o-2024-11-20</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.3</v>
+        <v>71.73999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>62.59</v>
+        <v>73.68000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>64.44</v>
+        <v>72.70999999999999</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-1.940000000000012</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>gpt-4o-2024-05-13</t>
+          <t>Qwen2.5-72B-Instruct</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69.90000000000001</v>
+        <v>67.95</v>
       </c>
       <c r="C5" t="n">
-        <v>55.01</v>
+        <v>71.29000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>62.46</v>
+        <v>69.62</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-3.340000000000003</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>gpt-4-turbo-2024-04-09</t>
+          <t>ERNIE-4.0-8K-0329</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67.23999999999999</v>
+        <v>62.37</v>
       </c>
       <c r="C6" t="n">
-        <v>56.08</v>
+        <v>75.84999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>61.66</v>
+        <v>69.11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-13.48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>glm-4-0520</t>
+          <t>claude-3-5-sonnet-20241022</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.40000000000001</v>
+        <v>69.92</v>
       </c>
       <c r="C7" t="n">
-        <v>55.3</v>
+        <v>67.31</v>
       </c>
       <c r="D7" t="n">
-        <v>60.85</v>
+        <v>68.61</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.609999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Qwen2-72B-Instruct</t>
+          <t>Mistral-Large-Instruct-2411</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>63.46</v>
+        <v>64.97</v>
       </c>
       <c r="C8" t="n">
-        <v>57.81</v>
+        <v>70.36</v>
       </c>
       <c r="D8" t="n">
-        <v>60.63</v>
+        <v>67.66</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-5.390000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>claude-3-5-sonnet-20240620</t>
+          <t>yi-lightning</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>73.87</v>
+        <v>70.09</v>
       </c>
       <c r="C9" t="n">
-        <v>46.34</v>
+        <v>64.69</v>
       </c>
       <c r="D9" t="n">
-        <v>60.11</v>
+        <v>67.39</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5.400000000000006</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>gpt-4o-mini-2024-07-18</t>
+          <t>glm-4-0520</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.73999999999999</v>
+        <v>60.25</v>
       </c>
       <c r="C10" t="n">
-        <v>50.55</v>
+        <v>73.43000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>58.65</v>
+        <v>66.84</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-13.18000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>internlm2_5-20b-chat</t>
+          <t>gpt-4o-2024-05-13</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>55.47</v>
+        <v>68.81999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>60.3</v>
+        <v>64.72</v>
       </c>
       <c r="D11" t="n">
-        <v>57.89</v>
+        <v>66.77</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.099999999999994</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>yi-large</t>
+          <t>claude-3-5-sonnet-20240620</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>63.28</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>50.91</v>
+        <v>63.95</v>
       </c>
       <c r="D12" t="n">
-        <v>57.1</v>
+        <v>66.47</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5.039999999999992</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Mistral-Large-Instruct-2407</t>
+          <t>phi-4</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64.69</v>
+        <v>58.17</v>
       </c>
       <c r="C13" t="n">
-        <v>46.3</v>
+        <v>74.67</v>
       </c>
       <c r="D13" t="n">
-        <v>55.5</v>
+        <v>66.42</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-16.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>moonshot-v1-32k</t>
+          <t>internlm3-8b-instruct</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>59.57</v>
+        <v>50.85</v>
       </c>
       <c r="C14" t="n">
-        <v>51.41</v>
+        <v>81.04000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>55.49</v>
+        <v>65.95</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-30.19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DeepSeek-V2.5</t>
+          <t>moonshot-v1-32k</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>64.47</v>
+        <v>59.09</v>
       </c>
       <c r="C15" t="n">
-        <v>46.35</v>
+        <v>69.27</v>
       </c>
       <c r="D15" t="n">
-        <v>55.41</v>
+        <v>64.18000000000001</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-10.17999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Qwen2.5-7B-Instruct</t>
+          <t>gpt-4o-mini-2024-07-18</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>55.75</v>
+        <v>61.83</v>
       </c>
       <c r="C16" t="n">
-        <v>49</v>
+        <v>63.74</v>
       </c>
       <c r="D16" t="n">
-        <v>52.37</v>
+        <v>62.79</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-1.910000000000004</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>internlm2_5-7b-chat</t>
+          <t>internlm2_5-20b-chat</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>49.66</v>
+        <v>53.44</v>
       </c>
       <c r="C17" t="n">
-        <v>54.37</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>52.01</v>
+        <v>62.61</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-18.35000000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Qwen2-7B-Instruct</t>
+          <t>Qwen2.5-7B-Instruct</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>48.05</v>
+        <v>57.09</v>
       </c>
       <c r="C18" t="n">
-        <v>50.71</v>
+        <v>58.62</v>
       </c>
       <c r="D18" t="n">
-        <v>49.38</v>
+        <v>57.85</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-1.529999999999994</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Yi-1.5-34B-Chat-16K</t>
+          <t>internlm2_5-7b-chat</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.17</v>
+        <v>48.14</v>
       </c>
       <c r="C19" t="n">
-        <v>46.21</v>
+        <v>67.45</v>
       </c>
       <c r="D19" t="n">
-        <v>47.19</v>
+        <v>57.79</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-19.31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Yi-1.5-9B-Chat-16K</t>
+          <t>glm-4-9b-chat</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>45.65</v>
+        <v>58.6</v>
       </c>
       <c r="C20" t="n">
-        <v>47.95</v>
+        <v>54.92</v>
       </c>
       <c r="D20" t="n">
-        <v>46.8</v>
+        <v>56.76</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.68</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>glm-4-9b-chat</t>
+          <t>Yi-1.5-34B-Chat</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>58.6</v>
+        <v>46.98</v>
       </c>
       <c r="C21" t="n">
-        <v>33.49</v>
+        <v>60.26</v>
       </c>
       <c r="D21" t="n">
-        <v>46.04</v>
+        <v>53.62</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-13.28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Yi-1.5-34B-Chat</t>
+          <t>Meta-Llama-3.1-70B-Instruct</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.55</v>
+        <v>54.51</v>
       </c>
       <c r="C22" t="n">
-        <v>40.69</v>
+        <v>52.69</v>
       </c>
       <c r="D22" t="n">
-        <v>45.62</v>
+        <v>53.6</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.82</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DeepSeek-Coder-V2-Lite-Instruct</t>
+          <t>Phi-3-medium-4k-instruct</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>53.4</v>
+        <v>37.62</v>
       </c>
       <c r="C23" t="n">
-        <v>37.1</v>
+        <v>65.54000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>45.25</v>
+        <v>51.58</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-27.92000000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Phi-3-medium-4k-instruct</t>
+          <t>Ministral-8B-Instruct-2410</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>36.17</v>
+        <v>49.77</v>
       </c>
       <c r="C24" t="n">
-        <v>54.29</v>
+        <v>51.55</v>
       </c>
       <c r="D24" t="n">
-        <v>45.23</v>
+        <v>50.66</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-1.779999999999994</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Meta-Llama-3.1-70B-Instruct</t>
+          <t>gemma-2-27b-it</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>56.05</v>
+        <v>48.55</v>
       </c>
       <c r="C25" t="n">
-        <v>32.26</v>
+        <v>51.24</v>
       </c>
       <c r="D25" t="n">
-        <v>44.16</v>
+        <v>49.89</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-2.690000000000005</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>gemma-2-27b-it</t>
+          <t>Yi-1.5-9B-Chat</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>54.31</v>
+        <v>43.62</v>
       </c>
       <c r="C26" t="n">
-        <v>31.69</v>
+        <v>54.39</v>
       </c>
       <c r="D26" t="n">
-        <v>43</v>
+        <v>49</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-10.77</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Yi-1.5-9B-Chat</t>
+          <t>gemma-2-9b-it</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>47.91</v>
+        <v>44.56</v>
       </c>
       <c r="C27" t="n">
-        <v>34.42</v>
+        <v>46.84</v>
       </c>
       <c r="D27" t="n">
-        <v>41.16</v>
+        <v>45.7</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-2.280000000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Phi-3-small-8k-instruct</t>
+          <t>Meta-Llama-3.1-8B-Instruct</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>30.98</v>
+        <v>51.17</v>
       </c>
       <c r="C28" t="n">
-        <v>47.87</v>
+        <v>38.21</v>
       </c>
       <c r="D28" t="n">
-        <v>39.43</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>gemma-2-9b-it</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>51.58</v>
-      </c>
-      <c r="C29" t="n">
-        <v>24.95</v>
-      </c>
-      <c r="D29" t="n">
-        <v>38.27</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Meta-Llama-3.1-8B-Instruct</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>47.31</v>
-      </c>
-      <c r="C30" t="n">
-        <v>26.26</v>
-      </c>
-      <c r="D30" t="n">
-        <v>36.78</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Mistral-7B-Instruct-v0.3</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>40.89</v>
-      </c>
-      <c r="C31" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="D31" t="n">
-        <v>34</v>
+        <v>44.69</v>
+      </c>
+      <c r="E28" t="n">
+        <v>12.96</v>
       </c>
     </row>
   </sheetData>
